--- a/bika/lims/tests/_test.xlsx
+++ b/bika/lims/tests/_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="17" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="958" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="12" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="957" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="622">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>Protein Analyser</t>
+  </si>
+  <si>
+    <t>Ether Extract</t>
   </si>
   <si>
     <t>EE</t>
@@ -2285,7 +2288,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -2398,11 +2401,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="20.3960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.0274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="40.156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.121568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2533,9 +2536,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="33.6627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="52.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="33.8352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="52.4470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
@@ -2642,10 +2645,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="82.9647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.9686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="83.3803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="24.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2731,22 +2734,22 @@
   </sheetPr>
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A33" xSplit="0" ySplit="1185"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" topLeftCell="A1" xSplit="0" ySplit="1185"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A41" activeCellId="0" pane="bottomLeft" sqref="A41"/>
+      <selection activeCell="H3" activeCellId="0" pane="bottomLeft" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -3201,7 +3204,7 @@
       <c r="D14" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -3493,7 +3496,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="21" t="s">
         <v>317</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="158.2" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="30">
       <c r="A30" s="21" t="s">
         <v>319</v>
       </c>
@@ -3622,7 +3625,7 @@
       <c r="D30" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F30" s="18" t="s">
@@ -3741,7 +3744,7 @@
       <c r="D35" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F35" s="18" t="s">
@@ -3850,12 +3853,12 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="40">
       <c r="A40" s="21" t="s">
         <v>326</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>310</v>
@@ -3968,10 +3971,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>310</v>
@@ -4084,13 +4087,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="50">
       <c r="A50" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>310</v>
@@ -4154,10 +4157,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="51">
       <c r="A51" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>14</v>
@@ -4165,7 +4168,7 @@
       <c r="D51" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -4197,13 +4200,13 @@
         <v>10</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P51" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T51" s="21" t="n">
         <v>10</v>
@@ -4273,13 +4276,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="56">
       <c r="A56" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>310</v>
@@ -4298,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>2</v>
@@ -4316,13 +4319,13 @@
         <v>10</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P56" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T56" s="21" t="n">
         <v>10</v>
@@ -4389,13 +4392,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="61">
       <c r="A61" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>310</v>
@@ -4414,7 +4417,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J61" s="21" t="n">
         <v>2</v>
@@ -4432,13 +4435,13 @@
         <v>10</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P61" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T61" s="21" t="n">
         <v>10</v>
@@ -4505,13 +4508,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="66">
       <c r="A66" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>310</v>
@@ -4530,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J66" s="21" t="n">
         <v>2</v>
@@ -4548,13 +4551,13 @@
         <v>10</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P66" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T66" s="21" t="n">
         <v>10</v>
@@ -4621,13 +4624,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="71">
       <c r="A71" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>310</v>
@@ -4646,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J71" s="21" t="n">
         <v>2</v>
@@ -4664,13 +4667,13 @@
         <v>10</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P71" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T71" s="21" t="n">
         <v>10</v>
@@ -4737,13 +4740,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="76">
       <c r="A76" s="21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>310</v>
@@ -4762,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J76" s="21" t="n">
         <v>2</v>
@@ -4780,13 +4783,13 @@
         <v>10</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P76" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T76" s="21" t="n">
         <v>10</v>
@@ -4853,13 +4856,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="81">
       <c r="A81" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>310</v>
@@ -4868,7 +4871,7 @@
         <v>107</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G81" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4893,13 +4896,13 @@
         <v>10</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P81" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T81" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U81" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -4909,34 +4912,34 @@
         <v>301</v>
       </c>
       <c r="Z81" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="Y82" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z82" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="83">
       <c r="Y83" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z83" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="84">
       <c r="A84" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>310</v>
@@ -4970,13 +4973,13 @@
         <v>10</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P84" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T84" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U84" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -4986,34 +4989,34 @@
         <v>301</v>
       </c>
       <c r="Z84" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="Y85" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z85" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="86">
       <c r="Y86" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z86" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="87">
       <c r="A87" s="21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>310</v>
@@ -5022,7 +5025,7 @@
         <v>107</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G87" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5047,13 +5050,13 @@
         <v>10</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P87" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T87" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U87" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5063,34 +5066,34 @@
         <v>301</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="Y88" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z88" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="89">
       <c r="Y89" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z89" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="90">
       <c r="A90" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>310</v>
@@ -5099,7 +5102,7 @@
         <v>107</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G90" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5124,13 +5127,13 @@
         <v>10</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P90" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T90" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U90" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5140,34 +5143,34 @@
         <v>301</v>
       </c>
       <c r="Z90" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="Y91" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z91" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="92">
       <c r="Y92" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z92" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="93">
       <c r="A93" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>310</v>
@@ -5176,7 +5179,7 @@
         <v>107</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G93" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5201,13 +5204,13 @@
         <v>10</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P93" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T93" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U93" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5277,13 +5280,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="98">
       <c r="A98" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>310</v>
@@ -5292,7 +5295,7 @@
         <v>107</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G98" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5317,13 +5320,13 @@
         <v>10</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P98" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T98" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U98" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5393,13 +5396,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="103">
       <c r="A103" s="21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>310</v>
@@ -5408,7 +5411,7 @@
         <v>107</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G103" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5433,13 +5436,13 @@
         <v>10</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P103" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T103" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U103" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5503,13 +5506,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="108">
       <c r="A108" s="21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D108" s="21" t="s">
         <v>310</v>
@@ -5543,19 +5546,19 @@
         <v>10</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P108" s="21" t="n">
         <v>14</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R108" s="18" t="s">
         <v>207</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T108" s="21" t="n">
         <v>10</v>
@@ -5634,18 +5637,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="113">
       <c r="A113" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>381</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F113" s="18" t="s">
@@ -5674,19 +5677,19 @@
         <v>10</v>
       </c>
       <c r="O113" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P113" s="21" t="n">
         <v>14</v>
       </c>
       <c r="Q113" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R113" s="18" t="s">
         <v>207</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="T113" s="21" t="n">
         <v>10</v>
@@ -5789,14 +5792,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="10.9450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
       <c r="A1" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="19" t="s">
@@ -5805,36 +5808,36 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -5842,7 +5845,7 @@
         <v>246</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>9</v>
@@ -5857,7 +5860,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="18"/>
       <c r="B5" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>9</v>
@@ -5872,7 +5875,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="18"/>
       <c r="B6" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>9</v>
@@ -5902,7 +5905,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C8" s="38" t="n">
         <v>9</v>
@@ -5917,7 +5920,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C9" s="38" t="n">
         <v>9</v>
@@ -5947,7 +5950,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="18"/>
       <c r="B11" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>9</v>
@@ -5962,7 +5965,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="18"/>
       <c r="B12" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>9</v>
@@ -5977,7 +5980,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="18"/>
       <c r="B13" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>9</v>
@@ -5992,7 +5995,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="18"/>
       <c r="B14" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>9</v>
@@ -6022,7 +6025,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="18"/>
       <c r="B16" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>9</v>
@@ -6037,7 +6040,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="18"/>
       <c r="B17" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>9</v>
@@ -6052,7 +6055,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="18"/>
       <c r="B18" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>9</v>
@@ -6082,7 +6085,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>9</v>
@@ -6097,7 +6100,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>9</v>
@@ -6112,7 +6115,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>9</v>
@@ -6127,7 +6130,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>9</v>
@@ -6157,7 +6160,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>9</v>
@@ -6172,7 +6175,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="18"/>
       <c r="B26" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>9</v>
@@ -6187,7 +6190,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="18"/>
       <c r="B27" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>9</v>
@@ -6202,7 +6205,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="18"/>
       <c r="B28" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>9</v>
@@ -6217,7 +6220,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="18"/>
       <c r="B29" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>9</v>
@@ -6232,7 +6235,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="18"/>
       <c r="B30" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>9</v>
@@ -6247,7 +6250,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="18"/>
       <c r="B31" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>9</v>
@@ -6277,7 +6280,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="18"/>
       <c r="B33" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>9</v>
@@ -6292,7 +6295,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="18"/>
       <c r="B34" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>9</v>
@@ -6322,7 +6325,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="18"/>
       <c r="B36" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>9</v>
@@ -6337,7 +6340,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="18"/>
       <c r="B37" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>9</v>
@@ -6352,7 +6355,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="18"/>
       <c r="B38" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>9</v>
@@ -6382,7 +6385,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="18"/>
       <c r="B40" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>9</v>
@@ -6397,7 +6400,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="18"/>
       <c r="B41" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>9</v>
@@ -6412,7 +6415,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="18"/>
       <c r="B42" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>9</v>
@@ -6427,7 +6430,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="18"/>
       <c r="B43" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>9</v>
@@ -6442,7 +6445,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="18"/>
       <c r="B44" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>9</v>
@@ -6457,7 +6460,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="18"/>
       <c r="B45" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>9</v>
@@ -6472,7 +6475,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="18"/>
       <c r="B46" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>9</v>
@@ -6487,7 +6490,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="18"/>
       <c r="B47" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>9</v>
@@ -6515,7 +6518,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="B49" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>9</v>
@@ -6529,7 +6532,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="B50" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>9</v>
@@ -6543,7 +6546,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="B51" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C51" s="38" t="n">
         <v>9</v>
@@ -6557,7 +6560,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="B52" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52" s="38" t="n">
         <v>9</v>
@@ -6574,7 +6577,7 @@
         <v>243</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C53" s="38" t="n">
         <v>9</v>
@@ -6588,7 +6591,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="B54" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="38" t="n">
         <v>9</v>
@@ -6603,7 +6606,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="18"/>
       <c r="B55" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C55" s="38" t="n">
         <v>9</v>
@@ -6633,7 +6636,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="18"/>
       <c r="B57" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C57" s="38" t="n">
         <v>9</v>
@@ -6648,7 +6651,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="A58" s="18"/>
       <c r="B58" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C58" s="38" t="n">
         <v>9</v>
@@ -6678,7 +6681,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="18"/>
       <c r="B60" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C60" s="38" t="n">
         <v>9</v>
@@ -6693,7 +6696,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="A61" s="18"/>
       <c r="B61" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="38" t="n">
         <v>9</v>
@@ -6708,7 +6711,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="18"/>
       <c r="B62" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C62" s="38" t="n">
         <v>9</v>
@@ -6723,7 +6726,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="18"/>
       <c r="B63" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C63" s="38" t="n">
         <v>9</v>
@@ -6753,7 +6756,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="18"/>
       <c r="B65" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C65" s="38" t="n">
         <v>9</v>
@@ -6768,7 +6771,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="18"/>
       <c r="B66" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C66" s="38" t="n">
         <v>9</v>
@@ -6783,7 +6786,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="A67" s="18"/>
       <c r="B67" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C67" s="38" t="n">
         <v>9</v>
@@ -6813,7 +6816,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="18"/>
       <c r="B69" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C69" s="38" t="n">
         <v>9</v>
@@ -6828,7 +6831,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="18"/>
       <c r="B70" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C70" s="38" t="n">
         <v>9</v>
@@ -6843,7 +6846,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="18"/>
       <c r="B71" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C71" s="38" t="n">
         <v>9</v>
@@ -6858,7 +6861,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="18"/>
       <c r="B72" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C72" s="38" t="n">
         <v>9</v>
@@ -6888,7 +6891,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="18"/>
       <c r="B74" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" s="38" t="n">
         <v>9</v>
@@ -6903,7 +6906,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="18"/>
       <c r="B75" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C75" s="38" t="n">
         <v>9</v>
@@ -6918,7 +6921,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="18"/>
       <c r="B76" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C76" s="38" t="n">
         <v>9</v>
@@ -6933,7 +6936,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="18"/>
       <c r="B77" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C77" s="38" t="n">
         <v>9</v>
@@ -6948,7 +6951,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="18"/>
       <c r="B78" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C78" s="38" t="n">
         <v>9</v>
@@ -6963,7 +6966,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="18"/>
       <c r="B79" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C79" s="38" t="n">
         <v>9</v>
@@ -6978,7 +6981,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="18"/>
       <c r="B80" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C80" s="38" t="n">
         <v>9</v>
@@ -7008,7 +7011,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="18"/>
       <c r="B82" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C82" s="38" t="n">
         <v>9</v>
@@ -7023,7 +7026,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="18"/>
       <c r="B83" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C83" s="38" t="n">
         <v>9</v>
@@ -7053,7 +7056,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="18"/>
       <c r="B85" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C85" s="38" t="n">
         <v>9</v>
@@ -7068,7 +7071,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="18"/>
       <c r="B86" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C86" s="38" t="n">
         <v>9</v>
@@ -7083,7 +7086,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="18"/>
       <c r="B87" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C87" s="38" t="n">
         <v>9</v>
@@ -7113,7 +7116,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="18"/>
       <c r="B89" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C89" s="38" t="n">
         <v>9</v>
@@ -7128,7 +7131,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="18"/>
       <c r="B90" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C90" s="38" t="n">
         <v>9</v>
@@ -7143,7 +7146,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="18"/>
       <c r="B91" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C91" s="38" t="n">
         <v>9</v>
@@ -7158,7 +7161,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="18"/>
       <c r="B92" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C92" s="38" t="n">
         <v>9</v>
@@ -7173,7 +7176,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="18"/>
       <c r="B93" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C93" s="38" t="n">
         <v>9</v>
@@ -7188,7 +7191,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="18"/>
       <c r="B94" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C94" s="38" t="n">
         <v>9</v>
@@ -7203,7 +7206,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="18"/>
       <c r="B95" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C95" s="38" t="n">
         <v>9</v>
@@ -7218,7 +7221,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="96">
       <c r="A96" s="18"/>
       <c r="B96" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C96" s="38" t="n">
         <v>9</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="98">
       <c r="B98" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C98" s="38" t="n">
         <v>9</v>
@@ -7260,7 +7263,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="99">
       <c r="B99" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C99" s="38" t="n">
         <v>9</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="100">
       <c r="B100" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C100" s="38" t="n">
         <v>9</v>
@@ -7288,7 +7291,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="101">
       <c r="B101" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C101" s="38" t="n">
         <v>9</v>
@@ -7305,7 +7308,7 @@
         <v>249</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C102" s="38" t="n">
         <v>9</v>
@@ -7320,7 +7323,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="103">
       <c r="A103" s="18"/>
       <c r="B103" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C103" s="38" t="n">
         <v>9</v>
@@ -7335,7 +7338,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="104">
       <c r="A104" s="18"/>
       <c r="B104" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C104" s="38" t="n">
         <v>9</v>
@@ -7365,7 +7368,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="18"/>
       <c r="B106" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C106" s="38" t="n">
         <v>9</v>
@@ -7380,7 +7383,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="18"/>
       <c r="B107" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C107" s="38" t="n">
         <v>9</v>
@@ -7410,7 +7413,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="109">
       <c r="A109" s="18"/>
       <c r="B109" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C109" s="38" t="n">
         <v>9</v>
@@ -7425,7 +7428,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="110">
       <c r="A110" s="18"/>
       <c r="B110" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C110" s="38" t="n">
         <v>9</v>
@@ -7440,7 +7443,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="111">
       <c r="A111" s="18"/>
       <c r="B111" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C111" s="38" t="n">
         <v>9</v>
@@ -7455,7 +7458,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="112">
       <c r="A112" s="18"/>
       <c r="B112" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C112" s="38" t="n">
         <v>9</v>
@@ -7485,7 +7488,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="114">
       <c r="A114" s="18"/>
       <c r="B114" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C114" s="38" t="n">
         <v>9</v>
@@ -7500,7 +7503,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="115">
       <c r="A115" s="18"/>
       <c r="B115" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C115" s="38" t="n">
         <v>9</v>
@@ -7515,7 +7518,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="116">
       <c r="A116" s="18"/>
       <c r="B116" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C116" s="38" t="n">
         <v>9</v>
@@ -7545,7 +7548,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="18"/>
       <c r="B118" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C118" s="38" t="n">
         <v>9</v>
@@ -7560,7 +7563,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="18"/>
       <c r="B119" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C119" s="38" t="n">
         <v>9</v>
@@ -7575,7 +7578,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="18"/>
       <c r="B120" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C120" s="38" t="n">
         <v>9</v>
@@ -7590,7 +7593,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="18"/>
       <c r="B121" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C121" s="38" t="n">
         <v>9</v>
@@ -7620,7 +7623,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="A123" s="18"/>
       <c r="B123" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C123" s="38" t="n">
         <v>9</v>
@@ -7635,7 +7638,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="18"/>
       <c r="B124" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C124" s="38" t="n">
         <v>9</v>
@@ -7650,7 +7653,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="A125" s="18"/>
       <c r="B125" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C125" s="38" t="n">
         <v>9</v>
@@ -7665,7 +7668,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="126">
       <c r="A126" s="18"/>
       <c r="B126" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C126" s="38" t="n">
         <v>9</v>
@@ -7680,7 +7683,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
       <c r="A127" s="18"/>
       <c r="B127" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C127" s="38" t="n">
         <v>9</v>
@@ -7695,7 +7698,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="18"/>
       <c r="B128" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C128" s="38" t="n">
         <v>9</v>
@@ -7710,7 +7713,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
       <c r="A129" s="18"/>
       <c r="B129" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C129" s="38" t="n">
         <v>9</v>
@@ -7740,7 +7743,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
       <c r="A131" s="18"/>
       <c r="B131" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C131" s="38" t="n">
         <v>9</v>
@@ -7755,7 +7758,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="132">
       <c r="A132" s="18"/>
       <c r="B132" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C132" s="38" t="n">
         <v>9</v>
@@ -7785,7 +7788,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="134">
       <c r="A134" s="18"/>
       <c r="B134" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C134" s="38" t="n">
         <v>9</v>
@@ -7800,7 +7803,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="135">
       <c r="A135" s="18"/>
       <c r="B135" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C135" s="38" t="n">
         <v>9</v>
@@ -7815,7 +7818,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="136">
       <c r="A136" s="18"/>
       <c r="B136" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C136" s="38" t="n">
         <v>9</v>
@@ -7845,7 +7848,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="138">
       <c r="A138" s="18"/>
       <c r="B138" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C138" s="38" t="n">
         <v>9</v>
@@ -7860,7 +7863,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="139">
       <c r="A139" s="18"/>
       <c r="B139" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C139" s="38" t="n">
         <v>9</v>
@@ -7875,7 +7878,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="140">
       <c r="A140" s="18"/>
       <c r="B140" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C140" s="38" t="n">
         <v>9</v>
@@ -7890,7 +7893,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="141">
       <c r="A141" s="18"/>
       <c r="B141" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C141" s="38" t="n">
         <v>9</v>
@@ -7905,7 +7908,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="142">
       <c r="A142" s="18"/>
       <c r="B142" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C142" s="38" t="n">
         <v>9</v>
@@ -7920,7 +7923,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="143">
       <c r="A143" s="18"/>
       <c r="B143" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C143" s="38" t="n">
         <v>9</v>
@@ -7935,7 +7938,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="144">
       <c r="A144" s="18"/>
       <c r="B144" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C144" s="38" t="n">
         <v>9</v>
@@ -7950,7 +7953,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="145">
       <c r="A145" s="18"/>
       <c r="B145" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C145" s="38" t="n">
         <v>9</v>
@@ -7978,7 +7981,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="147">
       <c r="B147" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C147" s="38" t="n">
         <v>9</v>
@@ -7992,7 +7995,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="148">
       <c r="B148" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C148" s="38" t="n">
         <v>9</v>
@@ -8006,7 +8009,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="149">
       <c r="B149" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C149" s="38" t="n">
         <v>9</v>
@@ -8020,7 +8023,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="150">
       <c r="B150" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C150" s="38" t="n">
         <v>9</v>
@@ -8055,24 +8058,24 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.2509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="30.1176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="33.3176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="30.2705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="33.4823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.0509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1" s="9">
       <c r="A1" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -8089,25 +8092,25 @@
         <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
@@ -8118,10 +8121,10 @@
         <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>267</v>
@@ -8133,7 +8136,7 @@
         <v>191</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>272</v>
@@ -8144,26 +8147,26 @@
         <v>260</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -8172,13 +8175,13 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H5" s="28" t="n">
         <v>0</v>
@@ -8190,26 +8193,26 @@
         <v>321</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -8218,19 +8221,19 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
@@ -8239,19 +8242,19 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
@@ -8259,26 +8262,26 @@
         <v>315</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -8287,19 +8290,19 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H10" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="11">
@@ -8308,19 +8311,19 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
@@ -8328,26 +8331,26 @@
         <v>312</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H12" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -8356,19 +8359,19 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
@@ -8377,46 +8380,46 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H14" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H15" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -8425,19 +8428,19 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H16" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
@@ -8446,33 +8449,33 @@
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H17" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -8482,16 +8485,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -8501,16 +8504,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -8520,16 +8523,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -8539,16 +8542,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -8558,16 +8561,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -8577,22 +8580,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H24" s="28" t="n">
         <v>0</v>
@@ -8600,13 +8603,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H25" s="28" t="n">
         <v>0</v>
@@ -8614,13 +8617,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H26" s="28" t="n">
         <v>0</v>
@@ -8628,13 +8631,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
       <c r="E27" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H27" s="28" t="n">
         <v>0</v>
@@ -8642,13 +8645,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H28" s="28" t="n">
         <v>0</v>
@@ -8656,22 +8659,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H29" s="28" t="n">
         <v>0</v>
@@ -8679,13 +8682,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H30" s="28" t="n">
         <v>0</v>
@@ -8693,13 +8696,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H31" s="28" t="n">
         <v>0</v>
@@ -8707,13 +8710,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="32">
       <c r="E32" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H32" s="28" t="n">
         <v>0</v>
@@ -8721,13 +8724,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="E33" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H33" s="28" t="n">
         <v>0</v>
@@ -8759,13 +8762,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="30.0901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="30.243137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="10.9450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="40">
       <c r="A1" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8797,10 +8800,10 @@
         <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
@@ -8814,49 +8817,49 @@
         <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -8882,14 +8885,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="31.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="61.1921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="31.7725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="61.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -8931,18 +8934,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8963,24 +8966,24 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A40" activeCellId="0" pane="topLeft" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="28.0470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="28.1803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="26"/>
@@ -9009,22 +9012,22 @@
         <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
@@ -9035,30 +9038,30 @@
         <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C4" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -9068,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>0</v>
@@ -9124,7 +9127,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="E8" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>0</v>
@@ -9138,7 +9141,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="E9" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F9" s="28" t="n">
         <v>0</v>
@@ -9152,7 +9155,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="E10" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>0</v>
@@ -9166,7 +9169,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="E11" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F11" s="28" t="n">
         <v>0</v>
@@ -9194,7 +9197,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="E13" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>0</v>
@@ -9208,7 +9211,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="E14" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F14" s="28" t="n">
         <v>0</v>
@@ -9222,7 +9225,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="E15" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>0</v>
@@ -9264,7 +9267,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="E18" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F18" s="28" t="n">
         <v>0</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="E19" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>0</v>
@@ -9292,7 +9295,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="E20" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>0</v>
@@ -9306,10 +9309,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C21" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -9319,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F21" s="28" t="n">
         <v>5</v>
@@ -9375,7 +9378,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F25" s="28" t="n">
         <v>5</v>
@@ -9389,7 +9392,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>5</v>
@@ -9403,7 +9406,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>5</v>
@@ -9417,7 +9420,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>5</v>
@@ -9445,7 +9448,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>5</v>
@@ -9459,7 +9462,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>5</v>
@@ -9473,7 +9476,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="E32" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F32" s="28" t="n">
         <v>5</v>
@@ -9515,7 +9518,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="E35" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>5</v>
@@ -9529,7 +9532,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="E36" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>5</v>
@@ -9543,7 +9546,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="E37" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>5</v>
@@ -9578,16 +9581,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="28.0470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="31.1137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="26.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="28.1803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="31.2666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="26.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -9631,7 +9634,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -9651,16 +9654,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -9673,16 +9676,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -9695,16 +9698,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -9735,13 +9738,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.1411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="11.5490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="25.8392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="25.5058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="15.1411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="23.4705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="11.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="25.9647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="25.6313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="23.5882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -9856,15 +9859,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.4823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="23.1176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.6078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="23.2352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -9891,7 +9894,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -9911,7 +9914,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>94</v>
@@ -9928,62 +9931,62 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="A5" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="6">
+        <v>536</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="42" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -10009,13 +10012,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="32.6509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="32.8117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10057,34 +10060,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -10110,14 +10113,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.5647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="36.556862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.7921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="36.7372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10149,7 +10152,7 @@
         <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>272</v>
@@ -10166,27 +10169,27 @@
         <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>56</v>
@@ -10194,16 +10197,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E5" s="28" t="n">
         <v>20</v>
@@ -10211,13 +10214,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E6" s="28" t="n">
         <v>30</v>
@@ -10225,16 +10228,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E7" s="28" t="n">
         <v>35</v>
@@ -10242,16 +10245,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E8" s="28" t="n">
         <v>55</v>
@@ -10259,7 +10262,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B9" s="43" t="n">
         <v>0.96</v>
@@ -10268,7 +10271,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E9" s="28" t="n">
         <v>30</v>
@@ -10276,14 +10279,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E10" s="28" t="n">
         <v>22.75</v>
@@ -10291,14 +10294,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E11" s="28" t="n">
         <v>180</v>
@@ -10306,14 +10309,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E12" s="28" t="n">
         <v>20</v>
@@ -10321,16 +10324,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E13" s="28" t="n">
         <v>20</v>
@@ -10338,14 +10341,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E14" s="28" t="n">
         <v>520</v>
@@ -10353,14 +10356,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E15" s="28" t="n">
         <v>329</v>
@@ -10368,14 +10371,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="28" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E16" s="28" t="n">
         <v>250</v>
@@ -10383,13 +10386,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="28" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E17" s="28" t="n">
         <v>180</v>
@@ -10397,14 +10400,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E18" s="28" t="n">
         <v>245</v>
@@ -10412,14 +10415,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E19" s="28" t="n">
         <v>186</v>
@@ -10427,16 +10430,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E20" s="28" t="n">
         <v>20</v>
@@ -10444,16 +10447,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E21" s="28" t="n">
         <v>13.6</v>
@@ -10461,16 +10464,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E22" s="28" t="n">
         <v>90</v>
@@ -10478,13 +10481,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E23" s="28" t="n">
         <v>35</v>
@@ -10513,16 +10516,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="19.2196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="22.4588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="19.2196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10551,22 +10554,22 @@
         <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
@@ -10577,42 +10580,42 @@
         <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -10620,10 +10623,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -10631,7 +10634,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -10639,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -10647,7 +10650,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -10655,7 +10658,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -10663,7 +10666,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -10671,7 +10674,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -10679,7 +10682,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -10687,7 +10690,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>3</v>
@@ -10695,22 +10698,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -10718,10 +10721,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -10729,7 +10732,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -10737,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -10745,7 +10748,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -10753,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -10761,7 +10764,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -10769,7 +10772,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -10777,7 +10780,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -10785,7 +10788,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H23" s="28" t="n">
         <v>3</v>
@@ -10793,39 +10796,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="24">
       <c r="A24" s="28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>5</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -10851,13 +10854,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="32.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="33.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10883,32 +10886,32 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>3</v>
@@ -10919,7 +10922,7 @@
         <v>148</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>0</v>
@@ -10927,10 +10930,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>0</v>
@@ -10938,10 +10941,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>4</v>
@@ -10949,10 +10952,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>4</v>
@@ -10960,10 +10963,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>4</v>
@@ -10971,10 +10974,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C10" s="28" t="n">
         <v>3</v>
@@ -10982,10 +10985,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C11" s="28" t="n">
         <v>3</v>
@@ -11014,10 +11017,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="25.5058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="24.9882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="25.6313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="25.1176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -11278,13 +11281,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="22.4588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="19.0274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="22.0941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="24.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="19.121568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="22.2039215686274"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="24.9254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -11455,9 +11458,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="29.7450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="29.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -11542,15 +11545,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G24" activeCellId="0" pane="topLeft" sqref="G24"/>
+      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="28.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="26.8705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="28.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="27.0078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -11668,15 +11671,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="23.8039215686274"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="23.921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -12028,13 +12031,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="21.7607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="37.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="22.4588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="19.2196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="21.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="37.5882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="20.1607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="20">
@@ -12178,9 +12181,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="24.6352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.5882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="24.7647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="1" s="9">

--- a/bika/lims/tests/_test.xlsx
+++ b/bika/lims/tests/_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="957" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="22" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="954" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,14 +31,13 @@
     <sheet name="Attachment Types" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="Lab Products" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Worksheet Templates" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Prefixes" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="601">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -1048,7 +1047,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>AME – Apparent Metabolisable Energy</t>
+    <t>AME - Apparent Metabolisable Energy</t>
   </si>
   <si>
     <t>AME used for poultry feed as no correction is made for faecal or endogenous energy losses</t>
@@ -1063,7 +1062,7 @@
     <t>Apparent Metabolisable Energy</t>
   </si>
   <si>
-    <t>ME – Metabolisable Energy</t>
+    <t>ME - Metabolisable Energy</t>
   </si>
   <si>
     <t>ME used for ruminant feeds</t>
@@ -1090,7 +1089,7 @@
     <t>% DM</t>
   </si>
   <si>
-    <t>DE – Digestible Energy</t>
+    <t>DE - Digestible Energy</t>
   </si>
   <si>
     <t>DE is used for pig feeds</t>
@@ -1841,69 +1840,6 @@
   </si>
   <si>
     <t>AME,Ash,CF,CP,Clos,DE,DM,EE,Ecoli,Ecolicnt,Entero,Enterocnt,FSO2,FatCrude,ME,Moist,NDF,NSC,STA,SUG,Salmon,TDN,TSO2,TVBcnt,Temp,pHField</t>
-  </si>
-  <si>
-    <t>Prefixes</t>
-  </si>
-  <si>
-    <t>portal_type</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>padding</t>
-  </si>
-  <si>
-    <t>Portal Type</t>
-  </si>
-  <si>
-    <t>Padding</t>
-  </si>
-  <si>
-    <t>ARImport</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>DuplicateAnalysis</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ReferenceAnalysis</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>ReferenceSample</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SupplyOrder</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
-    <t>WS</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2224,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -2401,11 +2337,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="40.156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.121568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="20.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="40.5529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2536,9 +2472,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="33.8352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="52.4470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="34.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="52.9725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
@@ -2645,10 +2581,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="83.3803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="24.0862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="84.2117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="24.3294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2734,22 +2670,22 @@
   </sheetPr>
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A1" xSplit="0" ySplit="1185"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" topLeftCell="A61" xSplit="0" ySplit="1185"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="H3" activeCellId="0" pane="bottomLeft" sqref="H3"/>
+      <selection activeCell="A72" activeCellId="0" pane="bottomLeft" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -3191,7 +3127,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="202.95" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.75" outlineLevel="0" r="14">
       <c r="A14" s="21" t="s">
         <v>308</v>
       </c>
@@ -5792,9 +5728,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -8058,11 +7993,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="30.2705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="33.4823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.1607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="63.1843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="30.5803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="33.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.1607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1" s="9">
@@ -8762,8 +8697,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="30.243137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="30.5529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="40">
@@ -8885,9 +8819,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="31.7725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="61.5019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="32.078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.1176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -8971,8 +8905,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="28.1803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="28.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
@@ -9581,11 +9515,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="28.1803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="31.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="26.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="28.4549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="31.5725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="27.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
@@ -9738,13 +9672,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="11.6117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="25.9647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="25.6313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="23.5882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="26.2196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="25.8862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="23.8235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -9859,10 +9793,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.6078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="23.2352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="23.4705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
@@ -10012,8 +9946,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="32.8117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="33.1372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -10113,9 +10047,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.7921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="36.7372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="46.243137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="37.0980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -10511,16 +10445,15 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A29" activeCellId="0" pane="topLeft" sqref="A29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C19" activeCellId="0" pane="topLeft" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="19.3176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="19.3176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="19.5098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="19.5098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
@@ -10829,169 +10762,6 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
         <v>596</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:V11"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="33.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="8" width="11.1058823529412"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
-      <c r="A1" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
-      <c r="A2" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
-      <c r="A3" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="C4" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="A5" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="C7" s="28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="C8" s="28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="C10" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="C11" s="28" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11017,10 +10787,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="25.6313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="25.1176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="25.8862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="25.3686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -11281,13 +11051,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="19.121568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="22.2039215686274"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="24.9254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="22.4196078431373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="25.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -11458,9 +11228,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="29.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="30.1882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -11549,11 +11319,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="28.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="27.0078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="28.8352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="27.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -11586,7 +11356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
@@ -11606,7 +11376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <v>440</v>
       </c>
@@ -11627,7 +11397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <v>320</v>
       </c>
@@ -11671,15 +11441,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="23.921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.5411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -11804,7 +11574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="17" t="s">
         <v>135</v>
       </c>
@@ -11855,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="17" t="s">
         <v>135</v>
       </c>
@@ -11906,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -11957,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="17" t="s">
         <v>138</v>
       </c>
@@ -12027,17 +11797,17 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="21.8705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="37.5882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="20.1607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="19.3176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="22.0862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="37.9686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="20.3686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="19.5098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="20">
@@ -12181,9 +11951,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.5882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="24.7647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.8235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="25.0078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.2156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="1" s="9">
